--- a/Assets/Data/DialogueDataFile.xlsx
+++ b/Assets/Data/DialogueDataFile.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Desktop\uniyt project\Study Project\kd visual novel\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCB21D5-69FC-4CE3-83FA-53875183AC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC488925-979C-43D7-840B-BF265090CC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DialogueDataFile" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>VoiceName</t>
   </si>
@@ -144,10 +154,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>end</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>⒳봉란2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -206,9 +212,6 @@
   <si>
     <t>sprite name, 퇴장 조건</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>봉란 첫인사</t>
   </si>
 </sst>
 </file>
@@ -1160,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1181,13 +1184,13 @@
         <v>35</v>
       </c>
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1214,6 +1217,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A10" si="0">A2</f>
+        <v>봉란 첫인사</v>
+      </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1225,6 +1232,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>봉란 첫인사</v>
+      </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1233,11 +1244,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>봉란 첫인사</v>
+      </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>봉란 첫인사</v>
+      </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -1246,11 +1265,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>봉란 첫인사</v>
+      </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>봉란 첫인사</v>
+      </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
@@ -1265,6 +1292,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>봉란 첫인사</v>
+      </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -1273,6 +1304,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>봉란 첫인사</v>
+      </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -1281,14 +1316,6 @@
       </c>
       <c r="D10" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -1306,16 +1333,28 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" t="str">
+        <f>A13</f>
+        <v>심심한 봉란</v>
+      </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" t="str">
+        <f>A14</f>
+        <v>심심한 봉란</v>
+      </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" t="str">
+        <f>A15</f>
+        <v>심심한 봉란</v>
+      </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -1324,16 +1363,15 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" t="str">
+        <f>A16</f>
+        <v>심심한 봉란</v>
+      </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -1348,6 +1386,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" t="str">
+        <f>A20</f>
+        <v>괴상한 도구</v>
+      </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -1356,6 +1398,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" t="str">
+        <f>A21</f>
+        <v>괴상한 도구</v>
+      </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
@@ -1367,21 +1413,37 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" t="str">
+        <f>A22</f>
+        <v>괴상한 도구</v>
+      </c>
       <c r="C23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" t="str">
+        <f>A23</f>
+        <v>괴상한 도구</v>
+      </c>
       <c r="C24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" t="str">
+        <f>A24</f>
+        <v>괴상한 도구</v>
+      </c>
       <c r="C25" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" t="str">
+        <f>A25</f>
+        <v>괴상한 도구</v>
+      </c>
       <c r="B26" t="s">
         <v>2</v>
       </c>
@@ -1396,77 +1458,79 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" t="str">
+        <f>A26</f>
+        <v>괴상한 도구</v>
+      </c>
       <c r="C27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
         <v>44</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C30" t="s">
         <v>45</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" t="str">
+        <f>A30</f>
+        <v>괴상한 도구After</v>
+      </c>
+      <c r="B31" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
+      <c r="C31" t="s">
         <v>47</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" t="str">
+        <f>A31</f>
+        <v>괴상한 도구After</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
-        <v>47</v>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" t="str">
+        <f>A32</f>
+        <v>괴상한 도구After</v>
       </c>
       <c r="C33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" t="str">
+        <f>A33</f>
+        <v>괴상한 도구After</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
         <v>41</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>42</v>
-      </c>
-      <c r="C38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/DialogueDataFile.xlsx
+++ b/Assets/Data/DialogueDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Desktop\uniyt project\Study Project\kd visual novel\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC488925-979C-43D7-840B-BF265090CC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB2D4FC-2704-48E5-8A05-E9ADE2C8D796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>VoiceName</t>
   </si>
@@ -211,6 +211,10 @@
   </si>
   <si>
     <t>sprite name, 퇴장 조건</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FadeType</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1163,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1179,7 +1183,7 @@
     <col min="6" max="6" width="23.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1198,8 +1202,11 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1216,7 +1223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A10" si="0">A2</f>
         <v>봉란 첫인사</v>
@@ -1231,7 +1238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>봉란 첫인사</v>
@@ -1243,7 +1250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>봉란 첫인사</v>
@@ -1252,7 +1259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>봉란 첫인사</v>
@@ -1264,7 +1271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>봉란 첫인사</v>
@@ -1273,7 +1280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>봉란 첫인사</v>
@@ -1291,7 +1298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>봉란 첫인사</v>
@@ -1303,7 +1310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>봉란 첫인사</v>
@@ -1318,7 +1325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1332,7 +1339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="str">
         <f>A13</f>
         <v>심심한 봉란</v>
@@ -1341,7 +1348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="str">
         <f>A14</f>
         <v>심심한 봉란</v>
@@ -1350,7 +1357,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="str">
         <f>A15</f>
         <v>심심한 봉란</v>
@@ -1387,7 +1394,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="str">
-        <f>A20</f>
+        <f t="shared" ref="A21:A27" si="1">A20</f>
         <v>괴상한 도구</v>
       </c>
       <c r="B21" t="s">
@@ -1399,7 +1406,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="str">
-        <f>A21</f>
+        <f t="shared" si="1"/>
         <v>괴상한 도구</v>
       </c>
       <c r="B22" t="s">
@@ -1414,7 +1421,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="str">
-        <f>A22</f>
+        <f t="shared" si="1"/>
         <v>괴상한 도구</v>
       </c>
       <c r="C23" t="s">
@@ -1423,7 +1430,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="str">
-        <f>A23</f>
+        <f t="shared" si="1"/>
         <v>괴상한 도구</v>
       </c>
       <c r="C24" t="s">
@@ -1432,7 +1439,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="str">
-        <f>A24</f>
+        <f t="shared" si="1"/>
         <v>괴상한 도구</v>
       </c>
       <c r="C25" t="s">
@@ -1441,7 +1448,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="str">
-        <f>A25</f>
+        <f t="shared" si="1"/>
         <v>괴상한 도구</v>
       </c>
       <c r="B26" t="s">
@@ -1459,7 +1466,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="str">
-        <f>A26</f>
+        <f t="shared" si="1"/>
         <v>괴상한 도구</v>
       </c>
       <c r="C27" t="s">

--- a/Assets/Data/DialogueDataFile.xlsx
+++ b/Assets/Data/DialogueDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Desktop\uniyt project\Study Project\kd visual novel\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB2D4FC-2704-48E5-8A05-E9ADE2C8D796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1750FD-6F5F-4338-B98D-C3FFD35E428B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>VoiceName</t>
   </si>
@@ -56,9 +56,6 @@
     <t>난 펭귄갓</t>
   </si>
   <si>
-    <t>MenuPad</t>
-  </si>
-  <si>
     <t>그래 이름 한번 ⓨ그지같네ⓦ</t>
   </si>
   <si>
@@ -216,6 +213,13 @@
   <si>
     <t>FadeType</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppearSlide/MenuPad</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisappearSlide</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1174,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1185,16 +1189,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1203,12 +1207,12 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1235,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1247,7 +1251,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1256,7 +1263,7 @@
         <v>봉란 첫인사</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -1265,10 +1272,10 @@
         <v>봉란 첫인사</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1277,7 +1284,7 @@
         <v>봉란 첫인사</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1289,13 +1296,13 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1307,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -1316,10 +1323,10 @@
         <v>봉란 첫인사</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -1327,13 +1334,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -1345,7 +1352,7 @@
         <v>심심한 봉란</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -1354,7 +1361,7 @@
         <v>심심한 봉란</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -1363,10 +1370,10 @@
         <v>심심한 봉란</v>
       </c>
       <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
         <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -1375,21 +1382,21 @@
         <v>심심한 봉란</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -1401,7 +1408,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -1410,13 +1417,13 @@
         <v>괴상한 도구</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
         <v>27</v>
-      </c>
-      <c r="F22" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -1425,7 +1432,7 @@
         <v>괴상한 도구</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -1434,7 +1441,7 @@
         <v>괴상한 도구</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -1443,7 +1450,7 @@
         <v>괴상한 도구</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -1455,13 +1462,13 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -1470,18 +1477,18 @@
         <v>괴상한 도구</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
         <v>43</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>44</v>
-      </c>
-      <c r="C30" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -1490,10 +1497,10 @@
         <v>괴상한 도구After</v>
       </c>
       <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
         <v>46</v>
-      </c>
-      <c r="C31" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -1502,10 +1509,10 @@
         <v>괴상한 도구After</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
@@ -1514,7 +1521,7 @@
         <v>괴상한 도구After</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
@@ -1523,21 +1530,21 @@
         <v>괴상한 도구After</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>41</v>
-      </c>
-      <c r="C38" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/DialogueDataFile.xlsx
+++ b/Assets/Data/DialogueDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Desktop\uniyt project\Study Project\kd visual novel\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1750FD-6F5F-4338-B98D-C3FFD35E428B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120E8F1C-94EF-4D50-9B50-DAAEB2731D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,15 +211,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>FadeType</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>AppearSlide/MenuPad</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>DisappearSlide</t>
+  </si>
+  <si>
+    <t>Camera Torque</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1174,7 +1174,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1185,6 +1185,7 @@
     <col min="4" max="4" width="23.3984375" customWidth="1"/>
     <col min="5" max="5" width="12.59765625" customWidth="1"/>
     <col min="6" max="6" width="23.09765625" customWidth="1"/>
+    <col min="7" max="7" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
@@ -1207,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1239,7 +1240,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1254,7 +1255,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">

--- a/Assets/Data/DialogueDataFile.xlsx
+++ b/Assets/Data/DialogueDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Desktop\uniyt project\Study Project\kd visual novel\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120E8F1C-94EF-4D50-9B50-DAAEB2731D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E45BCD4-7FDF-420E-A630-B0ED1FC31B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
   <si>
     <t>VoiceName</t>
   </si>
@@ -65,160 +65,264 @@
     <t>독백</t>
   </si>
   <si>
+    <t>ⓒ처음보는 거지만 상당히 싸가지가 없는듯하다</t>
+  </si>
+  <si>
+    <t>너 혹시 마음속으로 나 까고 있니? \n표정이 그래보여서</t>
+  </si>
+  <si>
+    <t>BongRan1</t>
+  </si>
+  <si>
+    <t>bongran01</t>
+  </si>
+  <si>
+    <t>아... 아니 별생각 안했어</t>
+  </si>
+  <si>
+    <t>ⓒ또한 독심술에도 능해 보인다</t>
+  </si>
+  <si>
+    <t>③욀케 지루해보이냐</t>
+  </si>
+  <si>
+    <t>내가 재밌는걸 보여주지</t>
+  </si>
+  <si>
+    <t>하! 분신술!!!</t>
+  </si>
+  <si>
+    <t>봉란1</t>
+  </si>
+  <si>
+    <t>내가 1번째 분신</t>
+  </si>
+  <si>
+    <t>내가 2번째 분신이다 !!</t>
+  </si>
+  <si>
+    <t>야 너 저거 봤냐?</t>
+  </si>
+  <si>
+    <t>저거라니? 무슨 말을…</t>
+  </si>
+  <si>
+    <t>나는 봉란의 손끝을 보고 순간 말을 잃었다</t>
+  </si>
+  <si>
+    <t>CG 2F_Biological_2</t>
+  </si>
+  <si>
+    <t>괴상하게 생긴 도구와 안에 들어 있는 액체</t>
+  </si>
+  <si>
+    <t>그리고 액체 안에 있는 숫자가 써진 종이</t>
+  </si>
+  <si>
+    <t>뭔가 불안하다 \n 그런 생각이 들었다.</t>
+  </si>
+  <si>
+    <t>Hide</t>
+  </si>
+  <si>
+    <t>눈빛만으로 사람을 실망시키다니 꽤나 능력잔데?</t>
+  </si>
+  <si>
+    <t>뭐야 완전 모르는 눈빛이잖아</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventName</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉란 첫인사</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>심심한 봉란</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴상한 도구</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>⒳봉란2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>문 닫혀있음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>⒳문</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓒ굳게 잠겨있다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>괴상한 도구After</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉란</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>어 저거의 정체를 알아낸 거 같아</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래? 뭔데</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 저건 바로</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>…...............</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>물감통이야!! 저기에 담겨있는 액체는 \n빨간색 물감인거지!!!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 이름, 대화 조건</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사, 조건 확인 미확인 여부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprite name, 퇴장 조건</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppearSlide/MenuPad</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisappearSlide</t>
+  </si>
+  <si>
+    <t>Camera Torque</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>은성 첫인사</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>은성</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕? 너도 어쩌다가 끌려왔니?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>어, 맞아</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아맞아!!</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>독백</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">ⓒ봉란이라고 하는 이친구 </t>
-  </si>
-  <si>
-    <t>ⓒ처음보는 거지만 상당히 싸가지가 없는듯하다</t>
-  </si>
-  <si>
-    <t>너 혹시 마음속으로 나 까고 있니? \n표정이 그래보여서</t>
-  </si>
-  <si>
-    <t>BongRan1</t>
-  </si>
-  <si>
-    <t>bongran01</t>
-  </si>
-  <si>
-    <t>아... 아니 별생각 안했어</t>
-  </si>
-  <si>
-    <t>ⓒ또한 독심술에도 능해 보인다</t>
-  </si>
-  <si>
-    <t>③욀케 지루해보이냐</t>
-  </si>
-  <si>
-    <t>내가 재밌는걸 보여주지</t>
-  </si>
-  <si>
-    <t>하! 분신술!!!</t>
-  </si>
-  <si>
-    <t>봉란1</t>
-  </si>
-  <si>
-    <t>내가 1번째 분신</t>
-  </si>
-  <si>
-    <t>내가 2번째 분신이다 !!</t>
-  </si>
-  <si>
-    <t>야 너 저거 봤냐?</t>
-  </si>
-  <si>
-    <t>저거라니? 무슨 말을…</t>
-  </si>
-  <si>
-    <t>나는 봉란의 손끝을 보고 순간 말을 잃었다</t>
-  </si>
-  <si>
-    <t>CG 2F_Biological_2</t>
-  </si>
-  <si>
-    <t>괴상하게 생긴 도구와 안에 들어 있는 액체</t>
-  </si>
-  <si>
-    <t>그리고 액체 안에 있는 숫자가 써진 종이</t>
-  </si>
-  <si>
-    <t>뭔가 불안하다 \n 그런 생각이 들었다.</t>
-  </si>
-  <si>
-    <t>Hide</t>
-  </si>
-  <si>
-    <t>눈빛만으로 사람을 실망시키다니 꽤나 능력잔데?</t>
-  </si>
-  <si>
-    <t>뭐야 완전 모르는 눈빛이잖아</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventName</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>봉란 첫인사</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>심심한 봉란</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>괴상한 도구</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>⒳봉란2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>문 닫혀있음</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>⒳문</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ⓒ굳게 잠겨있다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>괴상한 도구After</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>봉란</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>어 저거의 정체를 알아낸 거 같아</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주인공</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래? 뭔데</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래 저건 바로</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>…...............</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>물감통이야!! 저기에 담겨있는 액체는 \n빨간색 물감인거지!!!</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 이름, 대화 조건</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사, 조건 확인 미확인 여부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sprite name, 퇴장 조건</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppearSlide/MenuPad</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DisappearSlide</t>
-  </si>
-  <si>
-    <t>Camera Torque</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가 마음이 편해지는 느낌이야.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 문열기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓒ무슨 문이 있다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래 이 좁아터진 곳에 있기 싫었어.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 첫만남</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓒ문을 열고 나온 그곳에는…......</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>…........................</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>넌 누군야?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>음.. 나는 은성이고 우리 셋 다 영문도 모른 채 여기에서 일어났는데.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 마찬가지..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아 그럼 열어볼게..</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓒ이 친구는 정상인이다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR1</t>
+  </si>
+  <si>
+    <t>그리고 왔더니 싸가지 없는 여자가 시비를 걸고?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>다들 인사도 한거 같으니 이 거슬렸던 문을 열어볼까?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼저, 내 질문에 대답해.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1171,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1190,16 +1294,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>52</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1208,12 +1312,12 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1240,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1255,7 +1359,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1276,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1285,7 +1389,7 @@
         <v>봉란 첫인사</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1297,13 +1401,13 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1315,7 +1419,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -1327,7 +1431,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -1335,13 +1439,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -1353,7 +1457,7 @@
         <v>심심한 봉란</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -1362,7 +1466,7 @@
         <v>심심한 봉란</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -1371,10 +1475,10 @@
         <v>심심한 봉란</v>
       </c>
       <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
         <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -1383,21 +1487,21 @@
         <v>심심한 봉란</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -1409,7 +1513,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -1421,10 +1525,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
         <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -1433,7 +1537,7 @@
         <v>괴상한 도구</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -1442,7 +1546,7 @@
         <v>괴상한 도구</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -1451,7 +1555,7 @@
         <v>괴상한 도구</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -1463,13 +1567,13 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -1478,18 +1582,18 @@
         <v>괴상한 도구</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
         <v>42</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>43</v>
-      </c>
-      <c r="C30" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -1498,10 +1602,10 @@
         <v>괴상한 도구After</v>
       </c>
       <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
         <v>45</v>
-      </c>
-      <c r="C31" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -1510,42 +1614,263 @@
         <v>괴상한 도구After</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="str">
         <f>A32</f>
         <v>괴상한 도구After</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="str">
         <f>A33</f>
         <v>괴상한 도구After</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" t="str">
+        <f>A38</f>
+        <v>은성 첫인사</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" t="str">
+        <f t="shared" ref="A40:A43" si="2">A39</f>
+        <v>은성 첫인사</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" t="str">
+        <f t="shared" si="2"/>
+        <v>은성 첫인사</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" t="str">
+        <f t="shared" si="2"/>
+        <v>은성 첫인사</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" t="str">
+        <f t="shared" si="2"/>
+        <v>은성 첫인사</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" t="str">
+        <f>A45</f>
+        <v>처음 문열기</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" t="str">
+        <f>A46</f>
+        <v>처음 문열기</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" t="str">
+        <f>A47</f>
+        <v>처음 문열기</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" t="str">
+        <f t="shared" ref="A52:A58" si="3">A51</f>
+        <v>지수 첫만남</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" t="str">
+        <f t="shared" si="3"/>
+        <v>지수 첫만남</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" t="str">
+        <f t="shared" si="3"/>
+        <v>지수 첫만남</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" t="str">
+        <f t="shared" si="3"/>
+        <v>지수 첫만남</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" t="str">
+        <f t="shared" si="3"/>
+        <v>지수 첫만남</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" t="str">
+        <f t="shared" si="3"/>
+        <v>지수 첫만남</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" t="str">
+        <f t="shared" si="3"/>
+        <v>지수 첫만남</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/DialogueDataFile.xlsx
+++ b/Assets/Data/DialogueDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Desktop\uniyt project\Study Project\kd visual novel\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E45BCD4-7FDF-420E-A630-B0ED1FC31B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671E3F0A-B1BD-42B4-A15F-20C750F87C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>VoiceName</t>
   </si>
@@ -323,6 +323,10 @@
   </si>
   <si>
     <t>먼저, 내 질문에 대답해.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GR0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1277,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1503,6 +1507,9 @@
       <c r="C20" t="s">
         <v>23</v>
       </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="str">
@@ -1595,6 +1602,9 @@
       <c r="C30" t="s">
         <v>43</v>
       </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="str">
@@ -1662,6 +1672,9 @@
       <c r="C38" t="s">
         <v>57</v>
       </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="str">
@@ -1748,6 +1761,9 @@
       <c r="C46" t="s">
         <v>80</v>
       </c>
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="str">
@@ -1759,6 +1775,9 @@
       </c>
       <c r="C47" t="s">
         <v>65</v>
+      </c>
+      <c r="D47" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">

--- a/Assets/Data/DialogueDataFile.xlsx
+++ b/Assets/Data/DialogueDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Desktop\uniyt project\Study Project\kd visual novel\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671E3F0A-B1BD-42B4-A15F-20C750F87C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D19D4B-2B7F-4B32-872E-D9295ABA3AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
   <si>
     <t>VoiceName</t>
   </si>
@@ -327,6 +327,38 @@
   </si>
   <si>
     <t>GR0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지수 첫인사</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 이름은 지수야.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>어 내 이름은 펭귄갓이야</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 이름이 좀 이상하구나</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀이 아니라 많이 이상하지 않냐?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ⓒ사람 이름 가지고 그만좀 놀려라….</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sol0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sol1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1279,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1892,6 +1924,67 @@
         <v>75</v>
       </c>
     </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
